--- a/data/Anforderungen SPLG/qual_anf_neuro_final.xlsx
+++ b/data/Anforderungen SPLG/qual_anf_neuro_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72e34f8aa76be035/01_work/01_writing ^0 reviewing/06_other_projects/SW!SS REHA/SWISS-Reha-report/data/Anforderungen SPLG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72e34f8aa76be035/01_work/02_R/02_projects/SWISS_REHA_report/data/Anforderungen SPLG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{EB0CB780-12D5-444E-8954-434A662354DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B9A6D72-C0B4-4938-ABC9-8594F0762F78}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{EB0CB780-12D5-444E-8954-434A662354DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E38E554B-B7B8-41EE-BF3C-ABA3540A7AF5}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="268">
   <si>
     <t>Ärzte und andere Akademiker</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Spezialisierung</t>
-  </si>
-  <si>
-    <t>Bemerkung</t>
   </si>
   <si>
     <t>Präsenzdienst von 9h von Mo - Fr. Zu den üblichen Betriebszeiten</t>
@@ -493,12 +490,6 @@
     <t>in 30 Min. erreichbar</t>
   </si>
   <si>
-    <t>Bern-Kategorie: Fachärzte</t>
-  </si>
-  <si>
-    <t>Bern-Kategorie: Sozialdienst</t>
-  </si>
-  <si>
     <t>Kanton Thurgau</t>
   </si>
   <si>
@@ -581,9 +572,6 @@
     <t xml:space="preserve">Notfall-Koffer bzw. -Wagen inkl. Defibrillator gemäss Notfallkonzept verfügbar für Notfälle auf allen Bettenstationen und allen Behandlungseinheiten </t>
   </si>
   <si>
-    <t>TG-Kategorie: Akutmedizinischer Stand-By (im Falle erforderlicher ungeplanter Rückverlegungen)</t>
-  </si>
-  <si>
     <t>Notfall- und Routinelabor</t>
   </si>
   <si>
@@ -621,10 +609,6 @@
     <t>Diagnostik ossärer Komplikationen (Gelenke, Wirbelsäule)</t>
   </si>
   <si>
-    <t>TG-Subkategorie: Sport- / Bewegungstherapie
-Ergometer- und/oder Laufband-Training</t>
-  </si>
-  <si>
     <t>Evaluation, Beschaffung, Anpassung und Instruktion von Orthesen</t>
   </si>
   <si>
@@ -633,9 +617,6 @@
   <si>
     <t xml:space="preserve">Entspannungsverfahren, Gesundheitsbildung/-schulung
 </t>
-  </si>
-  <si>
-    <t>TG-Kategorie: Zusätzlich noch Entspannungsverfahren, Gesundheitsbildung/-schulung</t>
   </si>
   <si>
     <t>Im Haus
@@ -1653,13 +1634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,70 +1651,66 @@
     <col min="4" max="4" width="46.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
     <col min="6" max="8" width="50" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="2" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>0</v>
@@ -1745,18 +1722,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>6</v>
@@ -1774,15 +1751,12 @@
         <v>39</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -1795,17 +1769,14 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="46" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -1814,18 +1785,15 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>4</v>
@@ -1837,12 +1805,12 @@
         <v>5</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>8</v>
@@ -1854,18 +1822,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H8" s="46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>11</v>
@@ -1880,12 +1848,12 @@
         <v>13</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>11</v>
@@ -1895,9 +1863,9 @@
       </c>
       <c r="F10" s="46"/>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>11</v>
@@ -1907,47 +1875,47 @@
       </c>
       <c r="D11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>15</v>
@@ -1959,12 +1927,12 @@
         <v>16</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>17</v>
@@ -1973,21 +1941,21 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>17</v>
@@ -1996,24 +1964,24 @@
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>17</v>
@@ -2025,15 +1993,15 @@
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>21</v>
@@ -2042,21 +2010,21 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>21</v>
@@ -2065,24 +2033,24 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" s="46" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>21</v>
@@ -2094,15 +2062,15 @@
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>22</v>
@@ -2111,21 +2079,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>22</v>
@@ -2134,24 +2102,24 @@
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>22</v>
@@ -2163,13 +2131,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2183,13 +2151,10 @@
         <v>25</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2200,19 +2165,19 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H25" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -2226,10 +2191,10 @@
         <v>28</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -2243,37 +2208,37 @@
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H27" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D28"/>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="48"/>
       <c r="H28" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>29</v>
@@ -2285,35 +2250,35 @@
         <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H29" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>30</v>
@@ -2322,38 +2287,38 @@
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F32" s="46" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>18</v>
@@ -2362,29 +2327,29 @@
         <v>32</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H33" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>33</v>
@@ -2393,18 +2358,18 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F35" s="46" t="s">
         <v>31</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>33</v>
@@ -2413,21 +2378,21 @@
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>33</v>
@@ -2442,18 +2407,18 @@
         <v>34</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H37" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="37" t="s">
         <v>35</v>
@@ -2468,196 +2433,188 @@
         <v>37</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="1:13" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
       <c r="F39" s="49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="M39" s="40"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L39" s="40"/>
+    </row>
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
       <c r="F40" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="I40" s="39"/>
-    </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" s="39"/>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
       <c r="F42" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="39"/>
-    </row>
-    <row r="43" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="M43" s="41"/>
-    </row>
-    <row r="44" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="L43" s="41"/>
+    </row>
+    <row r="44" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="E44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F45" s="46" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="D46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="F46" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H47" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>20</v>
@@ -2671,19 +2628,19 @@
     </row>
     <row r="49" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H49" s="46" t="s">
         <v>20</v>
@@ -2691,19 +2648,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H50" s="46" t="s">
         <v>26</v>
@@ -2711,13 +2668,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>20</v>
@@ -2731,16 +2688,16 @@
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F52" s="46" t="s">
         <v>26</v>
@@ -2751,16 +2708,16 @@
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F53" s="46" t="s">
         <v>26</v>
@@ -2771,19 +2728,19 @@
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>26</v>
@@ -2794,25 +2751,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>26</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H55" s="47" t="s">
         <v>26</v>
@@ -2820,13 +2777,13 @@
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>26</v>
@@ -2834,16 +2791,16 @@
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>26</v>
@@ -2854,13 +2811,13 @@
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>26</v>
@@ -2874,13 +2831,13 @@
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>26</v>
@@ -2894,13 +2851,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>20</v>
@@ -2908,13 +2865,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>26</v>
@@ -2922,13 +2879,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>20</v>
@@ -2942,13 +2899,13 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>20</v>
@@ -2962,13 +2919,13 @@
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>20</v>
@@ -2980,18 +2937,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>26</v>
@@ -3000,277 +2957,273 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F66" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>172</v>
       </c>
       <c r="F67" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F68" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="C69" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="D70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="D71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="C72" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D72" s="45"/>
       <c r="F72" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C74" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="21" t="s">
+      <c r="D74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" s="21" t="s">
+      <c r="C78" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" s="21" t="s">
+      <c r="C79" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="23" t="s">
+      <c r="C80" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>117</v>
-      </c>
       <c r="D80" s="12" t="s">
         <v>20</v>
       </c>
@@ -3281,30 +3234,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F81" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>20</v>
@@ -3316,58 +3269,55 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C85" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>120</v>
-      </c>
       <c r="D85" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F85" s="47" t="s">
         <v>26</v>
@@ -3376,18 +3326,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F86" s="47" t="s">
         <v>26</v>
@@ -3396,18 +3346,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F87" s="47" t="s">
         <v>26</v>
@@ -3416,30 +3366,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D88" s="45"/>
       <c r="F88" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="45"/>
@@ -3447,31 +3397,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
       <c r="F90" s="47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
@@ -3479,15 +3429,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="45"/>
@@ -3495,15 +3445,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
@@ -3511,15 +3461,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="45"/>
@@ -3527,33 +3477,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
       <c r="F95" s="47"/>
       <c r="G95" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="45"/>
@@ -3563,13 +3513,13 @@
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D97" s="45"/>
       <c r="E97" s="45"/>
@@ -3579,13 +3529,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C98" s="44" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
@@ -3595,13 +3545,13 @@
     </row>
     <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
@@ -3611,13 +3561,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C100" s="44" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="45"/>
@@ -3627,13 +3577,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="45"/>
@@ -3643,186 +3593,186 @@
     </row>
     <row r="102" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C102" s="44"/>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="46" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="D103" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="F103" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F104" s="47"/>
     </row>
     <row r="105" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F105" s="47"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D106" s="2"/>
       <c r="F106" s="53" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D107" s="2"/>
       <c r="F107" s="53" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D108" s="2"/>
       <c r="F108" s="53" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D109" s="2"/>
       <c r="F109" s="53" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>234</v>
-      </c>
       <c r="G115" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H115" s="3"/>
     </row>
